--- a/biology/Botanique/Connellia/Connellia.xlsx
+++ b/biology/Botanique/Connellia/Connellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Connellia est un genre de plante de la famille des Bromeliaceae regroupant au moins six espèces, originaires de Guyana et du Venezuela. Il porte le nom de l'ornithologiste et biologiste britannique Frederick Vavasour McConnell.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Connellia augustae (R. Schomburgk) N.E. Brown
 Connellia caricifolia L.B. Smith
